--- a/OPIC 전략.xlsx
+++ b/OPIC 전략.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11835" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11835" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="실용표현" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Script" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~ 상태야. I'm feeling nervoud(나 좀 긴장돼) I'm feeling amazing/perfect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I'm a foodie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,6 +759,129 @@
   </si>
   <si>
     <t>의견을 말할때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 묘사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 묘사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바 묘사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방 구조
+내 침실은 내가 하고 싶은 모든것을 할수 있고 갖춰져 있어 좋다
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 상태야. I'm feeling nervous(나 좀 긴장돼) I'm feeling amazing/perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도가 좋다
+좋은 풍경, 맛있는 음식
+물가는 비싸다
+제주도 다녀오면 새로운 기분으로 생활할수 있고 에너지를 느낄수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm a huge fan of trips. 
+I like to go on trips in my free time with my family
+My favorite place is Jeju island.
+It's one of the most famous tourist spots in Korea.
+Plus jeju is well known for fantastic view and beautiful beach and various types of delicious cuisine. But you know expensive price is negative.
+I really love trips because they make me excited and get more energy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm busy these days, but when I have more free time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. I want to go on trip with my family more often.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well you want to know about where I live right? 
+I live In a three bedroom apartment. And It's in a city called Bangeedong in Korea. 
+In my apartment there are three bed rooms, 2 bath rooms, 1 living room and balcony.
+My fovorite space is my living room. The reason why I love it because I can do whatever I feel like .
+I can take a rest and watch the youtube and read comic books. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All things that I like are in there.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I really love having my own time in there. It's the best</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +889,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +902,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -809,12 +937,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,9 +1602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1687,275 +1818,275 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
         <v>124</v>
-      </c>
-      <c r="C28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
         <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
         <v>130</v>
-      </c>
-      <c r="C31" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
         <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
         <v>136</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
         <v>138</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
         <v>140</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>143</v>
-      </c>
-      <c r="C37" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
         <v>145</v>
-      </c>
-      <c r="C38" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
         <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
         <v>149</v>
-      </c>
-      <c r="C40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
         <v>151</v>
-      </c>
-      <c r="C41" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
         <v>153</v>
-      </c>
-      <c r="C42" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
         <v>155</v>
-      </c>
-      <c r="C43" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
         <v>157</v>
-      </c>
-      <c r="C44" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
         <v>159</v>
-      </c>
-      <c r="C45" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
         <v>161</v>
-      </c>
-      <c r="C46" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
         <v>163</v>
-      </c>
-      <c r="C47" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" t="s">
         <v>165</v>
-      </c>
-      <c r="C48" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="10.5" customHeight="1"/>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
         <v>178</v>
-      </c>
-      <c r="C58" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
         <v>175</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
         <v>183</v>
-      </c>
-      <c r="C62" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
         <v>185</v>
-      </c>
-      <c r="C63" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1966,13 +2097,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="120.375" customWidth="1"/>
+    <col min="4" max="4" width="52.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="115.5">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="132">
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OPIC 전략.xlsx
+++ b/OPIC 전략.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,6 +884,120 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>음악
+(좋아하는 음악)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 뉴에이지 이지 리스닝 
+이후 다양한 음악 락 헤비메탈 Electric music techno
+다양한 국가 기기(카세트 CD -&gt; mp3 player file format, cell phone)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 문제점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's about it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't think anything else.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게다야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 말할게 생각나지 않네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Well my favorite types of music, right.
+When I was an teenager there were not various types of music. English Pop was the trend in music category.
+When I became a highschool student, I was intereseted in new age which is called " easy listening". I liked the Keeny G and George winston back then. They were famouse performer and composer of the new age.
+After that time, I became a enthusiast of various type of music, Rock, heavy metal, and electronic sound.
+Nowadays I think that people have a lot of choices in music.
+And  korean pop is high status in the global music industry. Psy, BTS, Black Pink, Newjeans people are very proud of K-pop and culture.
+After I got the job, I 've been busy. So I can't afford to listen K-pop or music of girl groups enough these days.
+But when I have more free time. I want to listen the K-pop more often. That's all I say.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">물이 샌다 The ceiling is leaking water. The ceiling is dripping wet.
+윗층집 upper stairs house
+층간 소음 noise between floors
+도덕수준 level of morality
+담배냄새  smell of cigarretes
+유지보수 maintenance
+비용문제
+신축 아파트
+집이 오래되면 여러가지 문제가 발생할수 있음
+물샘, 층간소음, 실내 흡연
+가끔 노호설비들은 비용문제
+그외 도덕수준과 서로 양보
+신축아파트
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowadays it's easy to see the news about the issue between neighbor because of the old apartment.
+It can be leakage of water under the ceiling, noise between the floor, smoking in the apartment, and so on.
+A few months ago, I experienced the situation .
+The ceiling was leaking water.
+I was embarrassed. So I had to go to neighbor in upstairs. then we became to know that the problem was from crack of the water pipeline.
+Anyway they fixed it. but it took long time. I think that it may take much money and it can be occured to my house.
+Whenever I experience these kind of situation, or hear the similar case, I want to move the brand new apartment.
+So I think that I have to do my best in work to make bank. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey eve. It's soo. How are you doing?
+I'm calling to task about your MP3 player.
+First where did you get your MP3 player? 
+How much was it? ( How much does it cost?)
+Plus which brand is it?
+Is it from Samsung or Apple?
+Do you have any recommendations?
+And lastly are you happy with your MP3 player?
+So that's all I say. Give me a call when get this message, alright?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제: MP3, 전화기, 가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP3
+RP 정보얻기(Q11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP3
+RP 대안제시(Q12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey eva. It's soo. How are you doing?
+Hey, I have some bad news.
+I mean… I broke your MP3 player by mistake. 
+I dropped it into the sink. And it's not working since then.
+I feel really bad about this.
+I should've been more careful. 
+I promise, I'll make it up to you later. 
+How about I buy you a new MP3 player? 
+Call me back as soon as you get this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -915,12 +1029,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -937,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,6 +1065,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1600,11 +1723,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2089,6 +2212,25 @@
         <v>185</v>
       </c>
     </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2097,17 +2239,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="120.375" customWidth="1"/>
-    <col min="4" max="4" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -2146,6 +2288,47 @@
     <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="214.5">
+      <c r="B5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="280.5">
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="148.5">
+      <c r="B7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="148.5">
+      <c r="B8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/OPIC 전략.xlsx
+++ b/OPIC 전략.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="219">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,24 +961,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hey eve. It's soo. How are you doing?
-I'm calling to task about your MP3 player.
-First where did you get your MP3 player? 
-How much was it? ( How much does it cost?)
-Plus which brand is it?
-Is it from Samsung or Apple?
-Do you have any recommendations?
-And lastly are you happy with your MP3 player?
-So that's all I say. Give me a call when get this message, alright?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과제: MP3, 전화기, 가구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP3
-RP 정보얻기(Q11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -996,6 +979,328 @@
 I promise, I'll make it up to you later. 
 How about I buy you a new MP3 player? 
 Call me back as soon as you get this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP3
+RP 정보얻기(Q11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제
+Cellphone 정보얻기(Q11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hey eve. It's soo. How are you doing?
+I'm calling to ask about your MP3 player.
+First where did you get your MP3 player? 
+How much was it? ( How much does it cost?)
+Plus which brand is it?
+Is it from Samsung or Apple?
+Do you have any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recommendations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?
+And lastly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are you happy with your MP3 player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?
+So that's all I say. Give me a call when get this message, alright?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll treat you later 밥살께(It's on me)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제
+Cellphone 정보얻기-줄여서(Q11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hi eva. I'm eunsu. How are you doing?
+The reason why I call you is that I want to get the info about your brand new cellphone.
+You know I have used my phone more than 3 years. So I want to get the new one.
+Where did you get your cell phone? You know I don't have sense for direction. So let me know the detailed location please.
+And the most important thing How much is it and did you get the discount?
+And if you know about the condition to get discount, let me know please.
+Plus can you explain the pros and cons in functionality?
+Lastly are you happy with your cell phone? 
+When you get this message, call me please.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'll treat you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> later. Bye.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(You know)
+(well)
+(umm)
+(right)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hi eva. I'm eunsu. How are you doing?
+(You know)The reason why I call you is that I want to get the info about your brand new cellphone.
+(Well) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where did you get your cell phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?  can you give me detailed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?
+(And) You know I'm a memo person. So I need the memo function. Does your cellphone have the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memo function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?
+And can you explain me about </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pros and cons in functionality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?
+And the most important thinng. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How much is it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? And did you get the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?
+Lastly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are you happy with your cell phone?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When you get this message, call me please. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'll treat you later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Bye.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2239,15 +2544,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B8"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="120.375" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
@@ -2314,21 +2621,43 @@
     </row>
     <row r="7" spans="2:4" ht="148.5">
       <c r="B7" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="148.5">
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="165">
+      <c r="B10" s="2" t="s">
         <v>212</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="148.5">
+      <c r="B11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/OPIC 전략.xlsx
+++ b/OPIC 전략.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="231">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,6 +1301,84 @@
       </rPr>
       <t>. Bye.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤플레이 Q12 대안제시
+콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사에 일이 생겨서 못감 + 너도 아는 다른 사람과 같이 가는건 어때?
+출근하다 go to work
+퇴근하다 leave the office, get off work, finish working</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤플레이 Q12 대안제시
+헬스장 P207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤플레이 Q12 대안제시
+여행사 P199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아픔(식중독) + 일정연기(꼭 가고 싶었음)
+식중독 food poisoning
+끔직한 awful  terrible
+화나는 angry
+짜증나는 annoying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몸이 안좋음 + 일정 변경
+몸이 안좋다 I'm not feeling well
+임박해서 at the last minute
+일정을 변경하다 reschedule my appointment for next week
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤플레이 Q12 대안제시
+병원예약 P210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello it this Dental clinic? It's Eunsu and you know I have an appointment with Dr. Kim for checking my implant. 
+(I gotta say) I don't think I can make it. Actually I have some issue at the work, so I have to go to work. 
+(Well), Sorry to cancel the appointment at the last minute.
+(I'm sorry to bother you.) 
+Anyway can I reschedule the appointment? How about nex Saturday? If you can't let me know available date. I can arrange it.
+Please give me the schedule as soon as possible, Thanks a lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회사에 일이 생김 + 일정변경
+I don't think I can make it
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교
+거주지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어릴때 저층아파트 + 작은 상가 + 산과 인접 좋은 공기
+지금 고층아파트 + 더큰 상가 + 대형몰+ 
+those were the day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When I was a kid elementary school student I lived in a low-rise apartment. It is close to the small mountain called Kwanak mt. 
+And there was a small strip mall which had grocery store, supermarket, statinary. It was not spacious and wasn't all that big. But in my view I (felt) it looked very huge and spacious.
+(you know) these days I live in high-rise apartment close to the olympic park and there is bigger sized mall and  it has many utilities.
+And it's very convenient.
+Nowadays,  I feel the apartment  is narrow and I want to live in more spacious apartment.
+Sometimes I missed the days when I was a kid.
+That's all I say.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2544,11 +2622,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D11"/>
+  <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2660,6 +2738,52 @@
         <v>217</v>
       </c>
     </row>
+    <row r="12" spans="2:4" ht="66">
+      <c r="B12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="99">
+      <c r="B13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="99">
+      <c r="B14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="99">
+      <c r="B15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="181.5">
+      <c r="B16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OPIC 전략.xlsx
+++ b/OPIC 전략.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="242">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -800,88 +800,6 @@
 좋은 풍경, 맛있는 음식
 물가는 비싸다
 제주도 다녀오면 새로운 기분으로 생활할수 있고 에너지를 느낄수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I'm a huge fan of trips. 
-I like to go on trips in my free time with my family
-My favorite place is Jeju island.
-It's one of the most famous tourist spots in Korea.
-Plus jeju is well known for fantastic view and beautiful beach and various types of delicious cuisine. But you know expensive price is negative.
-I really love trips because they make me excited and get more energy.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I'm busy these days, but when I have more free time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. I want to go on trip with my family more often.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Well you want to know about where I live right? 
-I live In a three bedroom apartment. And It's in a city called Bangeedong in Korea. 
-In my apartment there are three bed rooms, 2 bath rooms, 1 living room and balcony.
-My fovorite space is my living room. The reason why I love it because I can do whatever I feel like .
-I can take a rest and watch the youtube and read comic books. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All things that I like are in there.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I really love having my own time in there. It's the best</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1346,15 +1264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello it this Dental clinic? It's Eunsu and you know I have an appointment with Dr. Kim for checking my implant. 
-(I gotta say) I don't think I can make it. Actually I have some issue at the work, so I have to go to work. 
-(Well), Sorry to cancel the appointment at the last minute.
-(I'm sorry to bother you.) 
-Anyway can I reschedule the appointment? How about nex Saturday? If you can't let me know available date. I can arrange it.
-Please give me the schedule as soon as possible, Thanks a lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">회사에 일이 생김 + 일정변경
 I don't think I can make it
 </t>
@@ -1372,13 +1281,534 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When I was a kid elementary school student I lived in a low-rise apartment. It is close to the small mountain called Kwanak mt. 
-And there was a small strip mall which had grocery store, supermarket, statinary. It was not spacious and wasn't all that big. But in my view I (felt) it looked very huge and spacious.
-(you know) these days I live in high-rise apartment close to the olympic park and there is bigger sized mall and  it has many utilities.
+    <r>
+      <t xml:space="preserve">Well you want to know about where I live right? 
+I live In a three bedroom apartment. And It's in a city called Bangeedong in Korea. 
+In my apartment there are three bed rooms, 2 bath rooms, 1 living room and balcony.
+My fovorite space is my living room. The reason why I love it because I can do whatever I feel like .
+I can take a rest and watch the youtube and read comic books. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All things that I like are in there.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I really love having my own time in there. It's the best</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm a huge fan of trips. 
+I like to go on trips in my free time with my family
+My favorite place is Jeju island.
+It's one of the most famous tourist spots in Korea.
+Plus jeju is well known for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fantastic view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beautiful beach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>various types of delicious cuisine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>But you know expensive price is negative side.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+I really love trips because they make me excited </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and get more energy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm busy these days, but when I have more free time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. I want to go on trip </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with my family more often</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘사 (description)
+말할것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특징
+가장 좋은거 / 나쁜거 장점/단점 재미있는거/지루한거
+얼마나 자주?
+어느정도 시간 걸리지?   언제 그걸하지?
+어디에서? 지리  위치 3D
+주로 뭐를 하지
+어떻게 사용하지? 
+왜 하지? 의미? 목표?
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hello it this Dental clinic? It's Eunsu and you know I have an appointment with Dr. Kim </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for checking my implant. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(I gotta say)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I don't think I can make it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Actually I have some issues at the work, so I have to go to work. 
+(Well), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sorry to cancel the appointment at the last minute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm sorry to bother you.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) 
+Anyway can I reschedule the appointment? How about nex Saturday? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If you can't let me know available date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. I can arrange it.
+Please give me the schedule as soon as possible, Thanks a lot.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When I was a kid elementary school student I lived in a low-rise apartment. It is close to the small mountain called Kwanak mt. 
+And there was a small strip mall which had grocery store, supermarket, statinary. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It was not spacious and wasn't all that big.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>But in my view I (felt) it looked very huge and spacious.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(you know) these days I live in high-rise apartment close to the olympic park and there is bigger sized mall and  it has many </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>facilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
 And it's very convenient.
 Nowadays,  I feel the apartment  is narrow and I want to live in more spacious apartment.
-Sometimes I missed the days when I was a kid.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sometimes I missed the days when I was a kid, even though the space was not all that big.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 That's all I say.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점점 늘어나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get more    count is getting more.  It gets colder(점점추워지다)  it becomes colder
+arise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싼 가격  cheap price &lt;-&gt; expensive
+쿠폰      coupon (pay with coupon)
+일정한 커피 품질 regular quility of coffee
+스태프 친절도  staffs are good/nice/cool
+분위기 음악  latest music  trend music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은 술종류  various types of wine   soju sake, whisky, dequila
+적당한 가격 reasonable price
+맛있는 안주   famous dish, food,  cuisine, pizza pasta salad, cheese, dried fish, dried meat, 
+분위기 atmosphere noisy  loud
+흥미거리   dart pocket ball gamble
+단골   regular 
+치맥  chicken and beer combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~하곤 했다 When I was a student. I used walk for an hour in the morning.
+과거  back then.  There were not various kinds of music back then
+다양성 부족   It lacked variety
+요즘 these days  nowadays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀다
+나만의 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의 시간을 갖다 I enjoy some ME time.  
+푹쉬는게 필요하다 I neeed to relax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1406,6 +1836,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2597,21 +3036,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" t="s">
         <v>201</v>
-      </c>
-      <c r="C64" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" t="s">
         <v>202</v>
-      </c>
-      <c r="C65" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2622,11 +3061,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2648,140 +3087,184 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="115.5">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" ht="165">
+      <c r="B2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="66">
+      <c r="B3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="33">
+      <c r="B4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="33">
+      <c r="B5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="115.5">
+      <c r="B6" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="132">
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="82.5">
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" ht="115.5">
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="214.5">
+      <c r="B10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="132">
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="214.5">
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="11" spans="2:4" ht="280.5">
+      <c r="B11" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="280.5">
-      <c r="B6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="148.5">
+      <c r="B12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="148.5">
+      <c r="B13" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="148.5">
-      <c r="B7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="165">
+      <c r="B15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="148.5">
+      <c r="B16" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="148.5">
-      <c r="B8" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="165">
-      <c r="B10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="148.5">
-      <c r="B11" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="17" spans="2:4" ht="66">
+      <c r="B17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="66">
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="18" spans="2:4" ht="99">
+      <c r="B18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="99">
+      <c r="B19" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="99">
-      <c r="B13" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="99">
+      <c r="B20" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="99">
-      <c r="B14" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="99">
-      <c r="B15" s="2" t="s">
+    <row r="21" spans="2:4" ht="181.5">
+      <c r="B21" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="181.5">
-      <c r="B16" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/OPIC 전략.xlsx
+++ b/OPIC 전략.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="267">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,10 +767,6 @@
   </si>
   <si>
     <t>집 묘사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 묘사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -805,12 +801,6 @@
   <si>
     <t>음악
 (좋아하는 음악)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기 뉴에이지 이지 리스닝 
-이후 다양한 음악 락 헤비메탈 Electric music techno
-다양한 국가 기기(카세트 CD -&gt; mp3 player file format, cell phone)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1764,15 +1754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get more    count is getting more.  It gets colder(점점추워지다)  it becomes colder
-arise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>싼 가격  cheap price &lt;-&gt; expensive
 쿠폰      coupon (pay with coupon)
 일정한 커피 품질 regular quility of coffee
@@ -1802,13 +1783,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>나만의 시간을 갖다 I enjoy some ME time.  
+푹쉬는게 필요하다 I neeed to relax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get more    count is getting more.  It gets colder(점점추워지다)  it becomes colder
+arise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>놀다
 나만의 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나만의 시간을 갖다 I enjoy some ME time.  
-푹쉬는게 필요하다 I neeed to relax</t>
+    <t>자기소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 이름 최은수
+SW엔지니어로 20년 가까이 일했고
+내향성이고 말수 없지만 열심히 해볼께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Name is Eunsu.
+I've worked nearly 20 years as a SW Engineer.
+I'm introverted. And I'm shy person. So speaking more than 30 minutes is challgenge for me and as a engineer.
+But I'll try my best. That's all I can say.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">집 비교
+(어릴때 vs 지금)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어릴때: 저층아파트 작은 상가 fresh air 
+  in my view 공간 빌딩들이 커보였음
+지금: 고층아파트 큰 상가 많은 편의시설
+  더 넓은 공간 필요
+그래도 그때가 그립다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에서의 활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설거지 매일함
+주말에는 화장실 청소, 일요일엔 대청소
+특히 화장실을 깨끗이 하는것(물기없이)을 중요시
+깨끗하면 기분 좋다
+분리수거
+가정의 평화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 초대할 사람과 할일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학친구 친한 친구와 파티
+지금까지 바빠서 못 만났고 근황토크
+대학생때로 돌아가 술한잔
+그러나 정리는 깨끗이 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 고치고 싶은 부분과 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰딩을 없애고 싶다
+인테리어를 바꾸고 싶다 깔끔해 보이니까(밝게 세련되게 따뜻하게)
+비용은 많이 든다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내여행-인상깊었던 경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아버지와 캠핑
+x 밟은 경험
+추운 겨울에 캠핑가서 라면 끓여 먹었던 기억(설악산)
+춥고 힘들었던 기억  경치는 절경이었음
+아버지 돌아가시고 힘들었던 것들이 소중하게 기억에 남음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 묘사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악 취향변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 뉴에이지 이지 리스닝 
+이후 다양한 음악 락 헤비메탈 Electric music techno
+다양한 국가 기기(카세트 CD -&gt; mp3 player file format, cell phone)
+류이치사카모토(OST 마지막 황제), 케니지 조지윈스턴   
+어떨때는 슬프고 감미롭고 에너지가 넘치고 흐르는 느낌
+신해철: korean rock, 철학적 가사, 실험적인 음악, 락 -&gt; 전자 음악
+ 젊은 나이의 죽음과 안타까움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어릴때:  American pop, eastern pop and british pop
+          점차 다양한 음악취향(락, 헤비메탈, 전자음악, 힙합)
+현재: 닥치는 대로, 버겁지 않은 음악, 새로운 음악 따분하지 않은
+   바쁘니깐 따분하지 않은 음악이 힘을 얻게 함
+가끔은 옛날 음악 들으면 좋다(추억)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악으로 기억에 남는 경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공워 산책가서 J-Park 야외 공연
+잔디밭 위에서 공연, 펜스 쳐저있었지만 높은 언덕에서 멀리서 나마 공연을 느낄수 있었음
+분위기  여름밤 스윗함 열기
+가족과 함께 공연 볼수 있어 좋았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 묘사 국내여행
+가고 싶은 여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행갈때 준비할 것들 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">계획(루틴 일정)
+예약 (항공/교통, 숙박, 공연) 일정확인
+짐싸기
+차량 점검
+해외면 비자 여권, 환전
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렸을때 여행경험
+(누구와 어디로 한일 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대안제시
+가구구입
+질문하기 Q11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제해결
+가구 문제
+(가구 배달받았는데 심각한 문제)
+전화해서 문제 해결 Q12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구관련 어려웠던점과 어떻게 헤쳐나갔는지 설명
+Q13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신기술
+Q14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩탑
+에바에게 질문하기 Q15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2763,7 +2914,7 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -3036,21 +3187,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
         <v>199</v>
-      </c>
-      <c r="C64" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
         <v>200</v>
-      </c>
-      <c r="C65" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3061,11 +3212,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D21"/>
+  <dimension ref="B1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3081,190 +3232,305 @@
         <v>186</v>
       </c>
       <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
         <v>192</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="165">
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="66">
       <c r="B3" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33">
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="33">
       <c r="B5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="66">
+      <c r="B6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="115.5">
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="2:4" ht="115.5">
+      <c r="B7" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="132">
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="181.5">
+      <c r="B8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="99">
+      <c r="B9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="49.5">
+      <c r="B10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="115.5">
+      <c r="B11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="82.5">
+      <c r="B12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="280.5">
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="132">
+      <c r="B14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="99">
+      <c r="B15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="33">
+      <c r="B16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" ht="99">
+      <c r="B17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="82.5">
+      <c r="B18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" ht="115.5">
+      <c r="B19" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="214.5">
+      <c r="B20" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="82.5">
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="115.5">
-      <c r="B9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="214.5">
-      <c r="B10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="280.5">
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="99">
+      <c r="B21" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="99">
+      <c r="B22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="148.5">
+      <c r="B23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="148.5">
+      <c r="B24" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="148.5">
-      <c r="B12" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="165">
+      <c r="B26" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="148.5">
+      <c r="B27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="148.5">
-      <c r="B13" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="165">
-      <c r="B15" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="148.5">
-      <c r="B16" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="28" spans="2:4" ht="66">
+      <c r="B28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="66">
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="29" spans="2:4" ht="99">
+      <c r="B29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="99">
+      <c r="B30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="99">
-      <c r="B18" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="31" spans="2:4" ht="99">
+      <c r="B31" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="99">
-      <c r="B19" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="99">
-      <c r="B20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="181.5">
-      <c r="B21" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>226</v>
+    <row r="32" spans="2:4" ht="49.5">
+      <c r="B32" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="99">
+      <c r="B33" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="66">
+      <c r="B34" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="33">
+      <c r="B35" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="33">
+      <c r="B36" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/OPIC 전략.xlsx
+++ b/OPIC 전략.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11835" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11835" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="288">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,10 +785,6 @@
   </si>
   <si>
     <t>스크립트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,53 +1268,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Well you want to know about where I live right? 
-I live In a three bedroom apartment. And It's in a city called Bangeedong in Korea. 
-In my apartment there are three bed rooms, 2 bath rooms, 1 living room and balcony.
-My fovorite space is my living room. The reason why I love it because I can do whatever I feel like .
-I can take a rest and watch the youtube and read comic books. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All things that I like are in there.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I really love having my own time in there. It's the best</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">I'm a huge fan of trips. 
 I like to go on trips in my free time with my family
 My favorite place is Jeju island.
@@ -1496,18 +1445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">특징
-가장 좋은거 / 나쁜거 장점/단점 재미있는거/지루한거
-얼마나 자주?
-어느정도 시간 걸리지?   언제 그걸하지?
-어디에서? 지리  위치 3D
-주로 뭐를 하지
-어떻게 사용하지? 
-왜 하지? 의미? 목표?
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Hello it this Dental clinic? It's Eunsu and you know I have an appointment with Dr. Kim </t>
     </r>
@@ -1642,110 +1579,6 @@
       </rPr>
       <t>. I can arrange it.
 Please give me the schedule as soon as possible, Thanks a lot.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When I was a kid elementary school student I lived in a low-rise apartment. It is close to the small mountain called Kwanak mt. 
-And there was a small strip mall which had grocery store, supermarket, statinary. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>It was not spacious and wasn't all that big.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>But in my view I (felt) it looked very huge and spacious.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(you know) these days I live in high-rise apartment close to the olympic park and there is bigger sized mall and  it has many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>facilities</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-And it's very convenient.
-Nowadays,  I feel the apartment  is narrow and I want to live in more spacious apartment.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sometimes I missed the days when I was a kid, even though the space was not all that big.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-That's all I say.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1776,23 +1609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~하곤 했다 When I was a student. I used walk for an hour in the morning.
-과거  back then.  There were not various kinds of music back then
-다양성 부족   It lacked variety
-요즘 these days  nowadays</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나만의 시간을 갖다 I enjoy some ME time.  
-푹쉬는게 필요하다 I neeed to relax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get more    count is getting more.  It gets colder(점점추워지다)  it becomes colder
-arise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>놀다
 나만의 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1805,13 +1621,6 @@
     <t>내 이름 최은수
 SW엔지니어로 20년 가까이 일했고
 내향성이고 말수 없지만 열심히 해볼께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Name is Eunsu.
-I've worked nearly 20 years as a SW Engineer.
-I'm introverted. And I'm shy person. So speaking more than 30 minutes is challgenge for me and as a engineer.
-But I'll try my best. That's all I can say.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1854,12 +1663,6 @@
   </si>
   <si>
     <t>집 고치고 싶은 부분과 이유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몰딩을 없애고 싶다
-인테리어를 바꾸고 싶다 깔끔해 보이니까(밝게 세련되게 따뜻하게)
-비용은 많이 든다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1962,12 +1765,737 @@
 에바에게 질문하기 Q15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>몰딩을 없애고 싶다  waintscoting
+아트월 교체
+인테리어를 바꾸고 싶다 깔끔해 보이니까(밝게 세련되게 따뜻하게)
+비용은 많이 든다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On weekday </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I do dishes everyday.
+On weekend I clean bathroom and Sunday I do deep cleanup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And I maintain bathroom in keeping clean and dried status. It's important for me. 
+I don't know why I'm doing this.
+May be it's my tendency.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I can imagine the unreal situation.
+I mean, I want to invite friend from university classmate and have a party in my  house without my wife and son. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Because we 've been so busy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and after marriage we can't meet and hang out.
+I want to be free! yeah.
+But you know it might not be reality. Beacause My wife and son have to go on trip without me.
+But if it occurs, after party I'll have to clean up and recover all of the party.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지루한 boring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특징
+가장 좋은거 / 나쁜거 장점/단점 재미있는거/지루한거 what's the best/worst/good/bad/exciting/boring
+얼마나 자주?   How often do you?
+어느정도 시간 걸리지?   언제 그걸하지?  How much times it takes
+어디에서? 지리  위치 3D   Where do ~
+주로 뭐를 하지   What do you ~
+어떻게 사용하지?   How do you use~
+왜 하지? 의미? 목표?  Why you do
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">~하곤 했다 When I was a student. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I used to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> walk for an hour in the morning.
+과거  back then.  There were not various kinds of music back then
+다양성 부족   It lacked variety
+요즘 these days  nowadays</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get more    count is getting more.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It gets colder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(점점추워지다)  it becomes colder
+arise</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">나만의 시간을 갖다 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I enjoy some ME time.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+푹쉬는게 필요하다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I neeed to relax extirely/all day</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My Name is Eunsu.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I've worked nearly 20 years as a SW Engineer.  I'm SW Engineer and I've been worked for nearly 20 years.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm introverted.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (you know) many koreans are like that. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And OPIC is the challenge for me.  
+Anyway I'll try my best.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+And I'm shy person. So speaking more than 30 minutes is challgenge for me and as a engineer.
+But I'll try my best. That's all I can say.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well you want to know about where I live right? 
+I live In a three bedroom apartment. And It's in a city called Bangeedong in Korea. 
+In my apartment there are three bed rooms, 2 bath rooms, 1 living room and balcony.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My fovorite space is my living room. The reason why I love it because I can do whatever I feel like .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All things that I like are in there.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+I can take a rest and watch the youtube and read comic books. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I really love having my own time in there. It's the best</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When I was a kid elementary school student I lived in a low-rise apartment. It is close to the small mountain called Kwanak mt. 
+And there was a small strip mall which had grocery store, supermarket, statinary. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It was not spacious and wasn't all that big.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>But in my view I (felt) it seemed/looked very huge and spacious.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(you know) these days I live in high-rise apartment close to the olympic park and there is bigger sized mall and  it has many </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>facilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+And it's very convenient.
+Nowadays,  I feel the apartment  is narrow and I want to live in more spacious apartment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sometimes I missed the days when I was a kid, even though the space was not all that big.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+That's all I say.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When I bought an apartment, there was something that was not my style. 
+=&gt; In my apartment there is something that is not my style.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(First of all) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I want to change the color of wainscoting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which is cherry and seems old.
+And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I want to remove the art wall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and I want to paint in white.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I think when I fixed or change these kind of thing, it will be seemed to be unity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+I know that it take much money. 
+But I love the simple interior despite of cost.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">touched / touching </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I was touched by his act of kindness
+moving / moved    I was moved by the spectacular performance
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실망스럽다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">disappointing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I was disappointed by his mistake.  You disappoint me.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attriactive   It has many attractive stuff.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I missed those days
+I have ungorgettable memories of my first camping when I was a elementary school student.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(연인이)헤어지다 이별하다
+He broke up with her 그가 그녀를 차버렸어
+통화중 지직거리다
+You're breaking up. Can you repeat that? 잘안들려 다시 이야기해줄래?
+Your voice is breaking up. Can I call you again?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(감정적으로)무너지다
+She broke down after the breakup. 그녀는 이별후에 감정적으로 힘들어했어
+망가지다 고장나다 (어떤 종류의 기계든 관계없음)
+My car broke down on my way to work. 출근길에 차가 고장났었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit it off  (첫만남부터) 금방 친해지다. 합이(죽이) 잘맞다
+We hit if off on our first date. 우린 첫 데이터부터 느낌이 좋았어
+Did you guys hit it off. 너네 잘 맞았어?
+I think you'd really hit if off with her. 내생각엔 너 그녀랑 금방 친해질거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get along</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이가 좋다, 잘지내다. 어울리다 (꾸준히 잘지내다 좋은 관계를 유지하다)
+We get along 우리잘지내
+We don't get along 우리 서로 앙숙이야.
+I get along with everyone. 난 모든 사람이랑 잘 지내.
+I don't really get along with my coworkers. 직장동료들이랑은 사이가 별로 안좋아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가를 쫓아다니면서 살펴본다
+돌보다 보살피다
+I need to look after the kids. 나는 애를 돌봐야되.
+I have to look after my dog. He's sick.나는 강아지 돌봐야해. 아프거든. 
+주의깊게 보다
+Can you look after my bag for a minute.
+Would you be able to look after my bag while I'm gone? 제가 잠시 자리비우는 동안 제 가방좀 봐주시겠어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2001,6 +2529,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2030,7 +2575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2041,6 +2586,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2339,7 +2887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -2696,11 +3244,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3187,21 +3735,61 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
         <v>196</v>
       </c>
-      <c r="B64" t="s">
-        <v>197</v>
-      </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="99">
+      <c r="B67" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="82.5">
+      <c r="B68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="66">
+      <c r="B69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="99">
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="148.5">
+      <c r="B71" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3212,11 +3800,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D36"/>
+  <dimension ref="B1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3234,303 +3822,341 @@
       <c r="C1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="2" spans="2:4" ht="165">
       <c r="B2" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>228</v>
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="66">
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33">
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="33">
       <c r="B5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="49.5">
+      <c r="B6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="33">
+      <c r="B8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="99">
+      <c r="B10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="132">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="181.5">
+      <c r="B12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="99">
+      <c r="B13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="165">
+      <c r="B14" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="115.5">
+      <c r="B15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="115.5">
+      <c r="B16" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="66">
-      <c r="B6" s="2" t="s">
+      <c r="C16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="17" spans="2:4" ht="280.5">
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="132">
+      <c r="B18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="99">
+      <c r="B19" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="115.5">
-      <c r="B7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="181.5">
-      <c r="B8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="99">
-      <c r="B9" s="2" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="49.5">
-      <c r="B10" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="115.5">
-      <c r="B11" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="82.5">
-      <c r="B12" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="280.5">
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="132">
-      <c r="B14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="99">
-      <c r="B15" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="33">
-      <c r="B16" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" ht="99">
-      <c r="B17" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="82.5">
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="33">
+      <c r="B20" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" ht="115.5">
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="214.5">
-      <c r="B20" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" ht="99">
       <c r="B21" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="82.5">
+      <c r="B22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" ht="115.5">
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="214.5">
+      <c r="B24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="99">
+      <c r="B25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="99">
+      <c r="B26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="148.5">
+      <c r="B27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="148.5">
+      <c r="B28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="165">
+      <c r="B30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="148.5">
+      <c r="B31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="66">
+      <c r="B32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="99">
+      <c r="B33" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="99">
+      <c r="B34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="99">
+      <c r="B35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="49.5">
+      <c r="B36" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="99">
+      <c r="B37" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="66">
+      <c r="B38" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="99">
-      <c r="B22" s="2" t="s">
+    <row r="39" spans="2:4" ht="33">
+      <c r="B39" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="40" spans="2:4" ht="33">
+      <c r="B40" s="2" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="148.5">
-      <c r="B23" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="148.5">
-      <c r="B24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="165">
-      <c r="B26" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="148.5">
-      <c r="B27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="66">
-      <c r="B28" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="99">
-      <c r="B29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="99">
-      <c r="B30" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="99">
-      <c r="B31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="49.5">
-      <c r="B32" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="99">
-      <c r="B33" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="66">
-      <c r="B34" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="33">
-      <c r="B35" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="33">
-      <c r="B36" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
